--- a/wide/synthetic_dataset_2.xlsx
+++ b/wide/synthetic_dataset_2.xlsx
@@ -380,211 +380,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:31">
       <c r="A1" s="1">
-        <v>45894</v>
+        <v>45893</v>
       </c>
       <c r="B1" s="1">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="C1" s="1">
-        <v>45908</v>
+        <v>45907</v>
       </c>
       <c r="D1" s="1">
-        <v>45915</v>
+        <v>45914</v>
       </c>
       <c r="E1" s="1">
-        <v>45922</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>45921</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45928</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45935</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45942</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45949</v>
+      </c>
+      <c r="J1" s="1">
+        <v>45956</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45963</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45970</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45977</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1">
-        <v>45936</v>
-      </c>
-      <c r="H1" s="1">
-        <v>45943</v>
-      </c>
-      <c r="I1" s="1">
-        <v>45950</v>
-      </c>
-      <c r="J1" s="1">
-        <v>45957</v>
-      </c>
-      <c r="K1" s="1">
-        <v>45964</v>
-      </c>
-      <c r="L1" s="1">
-        <v>45971</v>
-      </c>
-      <c r="M1" s="1">
-        <v>45978</v>
-      </c>
-      <c r="N1" s="1">
-        <v>45985</v>
-      </c>
       <c r="O1" s="1">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="P1" s="1">
-        <v>45999</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>0</v>
+        <v>45998</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>46005</v>
       </c>
       <c r="R1" s="1">
-        <v>46013</v>
+        <v>46012</v>
       </c>
       <c r="S1" s="1">
-        <v>46020</v>
+        <v>46019</v>
       </c>
       <c r="T1" s="1">
-        <v>46027</v>
+        <v>46026</v>
       </c>
       <c r="U1" s="1">
-        <v>46034</v>
+        <v>46033</v>
       </c>
       <c r="V1" s="1">
-        <v>46041</v>
+        <v>46040</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="1">
-        <v>46055</v>
+        <v>46054</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>46061</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>46068</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>46075</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>46089</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>46096</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>46103</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:31">
       <c r="A2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>137</v>
+      </c>
+      <c r="D2">
+        <v>152</v>
+      </c>
+      <c r="E2">
+        <v>92</v>
+      </c>
+      <c r="F2">
+        <v>94</v>
+      </c>
+      <c r="G2">
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <v>151</v>
+      </c>
+      <c r="I2">
+        <v>87</v>
+      </c>
+      <c r="J2">
+        <v>97</v>
+      </c>
+      <c r="K2">
+        <v>105</v>
+      </c>
+      <c r="L2">
+        <v>155</v>
+      </c>
+      <c r="M2">
+        <v>162</v>
+      </c>
+      <c r="N2">
+        <v>128</v>
+      </c>
+      <c r="O2">
+        <v>82</v>
+      </c>
+      <c r="P2">
+        <v>53</v>
+      </c>
+      <c r="Q2">
+        <v>160</v>
+      </c>
+      <c r="R2">
+        <v>55</v>
+      </c>
+      <c r="S2">
+        <v>180</v>
+      </c>
+      <c r="T2">
+        <v>172</v>
+      </c>
+      <c r="U2">
+        <v>183</v>
+      </c>
+      <c r="V2">
+        <v>196</v>
+      </c>
+      <c r="W2">
+        <v>176</v>
+      </c>
+      <c r="X2">
+        <v>94</v>
+      </c>
+      <c r="Y2">
+        <v>126</v>
+      </c>
+      <c r="Z2">
         <v>138</v>
       </c>
-      <c r="C2">
-        <v>160</v>
-      </c>
-      <c r="D2">
-        <v>95</v>
-      </c>
-      <c r="E2">
-        <v>109</v>
-      </c>
-      <c r="F2">
+      <c r="AA2">
+        <v>74</v>
+      </c>
+      <c r="AB2">
+        <v>56</v>
+      </c>
+      <c r="AC2">
         <v>91</v>
       </c>
-      <c r="G2">
-        <v>199</v>
-      </c>
-      <c r="H2">
-        <v>80</v>
-      </c>
-      <c r="I2">
-        <v>161</v>
-      </c>
-      <c r="J2">
-        <v>158</v>
-      </c>
-      <c r="K2">
-        <v>129</v>
-      </c>
-      <c r="L2">
-        <v>135</v>
-      </c>
-      <c r="M2">
-        <v>152</v>
-      </c>
-      <c r="N2">
-        <v>147</v>
-      </c>
-      <c r="O2">
-        <v>121</v>
-      </c>
-      <c r="P2">
-        <v>187</v>
-      </c>
-      <c r="Q2">
-        <v>153</v>
-      </c>
-      <c r="R2">
-        <v>150</v>
-      </c>
-      <c r="S2">
-        <v>162</v>
-      </c>
-      <c r="T2">
-        <v>96</v>
-      </c>
-      <c r="U2">
-        <v>126</v>
-      </c>
-      <c r="V2">
-        <v>79</v>
-      </c>
-      <c r="W2">
-        <v>167</v>
-      </c>
-      <c r="X2">
-        <v>65</v>
+      <c r="AD2">
+        <v>104</v>
+      </c>
+      <c r="AE2">
+        <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:31">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>7</v>
       </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
       <c r="O3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R3">
         <v>5</v>
@@ -593,167 +635,230 @@
         <v>9</v>
       </c>
       <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>10</v>
       </c>
-      <c r="U3">
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>9</v>
+      </c>
+      <c r="AD3">
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4">
+        <v>198</v>
+      </c>
+      <c r="B4">
+        <v>174</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>143</v>
+      </c>
+      <c r="E4">
+        <v>163</v>
+      </c>
+      <c r="F4">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>113</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>84</v>
+      </c>
+      <c r="J4">
+        <v>159</v>
+      </c>
+      <c r="K4">
+        <v>127</v>
+      </c>
+      <c r="L4">
+        <v>134</v>
+      </c>
+      <c r="M4">
+        <v>73</v>
+      </c>
+      <c r="N4">
+        <v>91</v>
+      </c>
+      <c r="O4">
+        <v>181</v>
+      </c>
+      <c r="P4">
+        <v>169</v>
+      </c>
+      <c r="Q4">
+        <v>51</v>
+      </c>
+      <c r="R4">
+        <v>53</v>
+      </c>
+      <c r="S4">
+        <v>115</v>
+      </c>
+      <c r="T4">
+        <v>56</v>
+      </c>
+      <c r="U4">
+        <v>87</v>
+      </c>
+      <c r="V4">
+        <v>60</v>
+      </c>
+      <c r="W4">
+        <v>185</v>
+      </c>
+      <c r="X4">
+        <v>75</v>
+      </c>
+      <c r="Y4">
+        <v>107</v>
+      </c>
+      <c r="Z4">
+        <v>77</v>
+      </c>
+      <c r="AA4">
+        <v>59</v>
+      </c>
+      <c r="AB4">
+        <v>126</v>
+      </c>
+      <c r="AC4">
+        <v>88</v>
+      </c>
+      <c r="AD4">
+        <v>68</v>
+      </c>
+      <c r="AE4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>9</v>
+      </c>
+      <c r="U5">
         <v>8</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>9</v>
-      </c>
-      <c r="X3">
+      <c r="V5">
+        <v>9</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>9</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
-        <v>189</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>163</v>
-      </c>
-      <c r="D4">
-        <v>84</v>
-      </c>
-      <c r="E4">
-        <v>135</v>
-      </c>
-      <c r="F4">
-        <v>159</v>
-      </c>
-      <c r="G4">
-        <v>114</v>
-      </c>
-      <c r="H4">
-        <v>91</v>
-      </c>
-      <c r="I4">
-        <v>188</v>
-      </c>
-      <c r="J4">
-        <v>146</v>
-      </c>
-      <c r="K4">
-        <v>172</v>
-      </c>
-      <c r="L4">
-        <v>50</v>
-      </c>
-      <c r="M4">
-        <v>140</v>
-      </c>
-      <c r="N4">
-        <v>136</v>
-      </c>
-      <c r="O4">
-        <v>119</v>
-      </c>
-      <c r="P4">
-        <v>79</v>
-      </c>
-      <c r="Q4">
-        <v>69</v>
-      </c>
-      <c r="R4">
-        <v>113</v>
-      </c>
-      <c r="S4">
-        <v>128</v>
-      </c>
-      <c r="T4">
-        <v>180</v>
-      </c>
-      <c r="U4">
-        <v>138</v>
-      </c>
-      <c r="V4">
-        <v>185</v>
-      </c>
-      <c r="W4">
-        <v>114</v>
-      </c>
-      <c r="X4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="AB5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
+      <c r="AC5">
+        <v>7</v>
+      </c>
+      <c r="AD5">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="AE5">
         <v>6</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>10</v>
-      </c>
-      <c r="T5">
-        <v>8</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>7</v>
-      </c>
-      <c r="W5">
-        <v>8</v>
-      </c>
-      <c r="X5">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
